--- a/assignment2 IR.xlsx
+++ b/assignment2 IR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spring 2020\mechatronics2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E1BD6C-22A9-4E4B-91B3-2E17F6DBD53A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B5DE32-7342-4039-A8A3-FFF0A189C82E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -953,50 +953,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="log"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$30:$A$42</c:f>
@@ -1052,40 +1008,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="1">
-                  <c:v>152.53749999999999</c:v>
+                  <c:v>136.37499999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>101.82499999999999</c:v>
+                  <c:v>90.083333333333314</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.46875</c:v>
+                  <c:v>66.937499999999986</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61.254999999999995</c:v>
+                  <c:v>53.05</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51.112499999999997</c:v>
+                  <c:v>43.791666666666664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43.86785714285714</c:v>
+                  <c:v>37.178571428571431</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38.434375000000003</c:v>
+                  <c:v>32.21875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34.208333333333336</c:v>
+                  <c:v>28.361111111111114</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.827500000000001</c:v>
+                  <c:v>25.275000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28.061363636363637</c:v>
+                  <c:v>22.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25.756249999999998</c:v>
+                  <c:v>20.645833333333332</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23.805769230769226</c:v>
+                  <c:v>18.865384615384613</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2950,15 +2906,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>88582</xdr:rowOff>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>20002</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3027,10 +2983,10 @@
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3357,8 +3313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3646,8 +3602,8 @@
         <v>0.4</v>
       </c>
       <c r="B31">
-        <f>0.4+60.855/A31</f>
-        <v>152.53749999999999</v>
+        <f>55.55/A31-2.5</f>
+        <v>136.37499999999997</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -3656,8 +3612,8 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="B32">
-        <f t="shared" ref="B32:B42" si="2">0.4+60.855/A32</f>
-        <v>101.82499999999999</v>
+        <f t="shared" ref="B32:B42" si="2">55.55/A32-2.5</f>
+        <v>90.083333333333314</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -3667,7 +3623,7 @@
       </c>
       <c r="B33">
         <f t="shared" si="2"/>
-        <v>76.46875</v>
+        <v>66.937499999999986</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -3677,7 +3633,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="2"/>
-        <v>61.254999999999995</v>
+        <v>53.05</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -3687,7 +3643,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="2"/>
-        <v>51.112499999999997</v>
+        <v>43.791666666666664</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -3697,7 +3653,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="2"/>
-        <v>43.86785714285714</v>
+        <v>37.178571428571431</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -3707,7 +3663,7 @@
       </c>
       <c r="B37">
         <f t="shared" si="2"/>
-        <v>38.434375000000003</v>
+        <v>32.21875</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -3717,7 +3673,7 @@
       </c>
       <c r="B38">
         <f t="shared" si="2"/>
-        <v>34.208333333333336</v>
+        <v>28.361111111111114</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -3727,7 +3683,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="2"/>
-        <v>30.827500000000001</v>
+        <v>25.275000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -3737,7 +3693,7 @@
       </c>
       <c r="B40">
         <f t="shared" si="2"/>
-        <v>28.061363636363637</v>
+        <v>22.75</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -3747,7 +3703,7 @@
       </c>
       <c r="B41">
         <f t="shared" si="2"/>
-        <v>25.756249999999998</v>
+        <v>20.645833333333332</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -3757,7 +3713,7 @@
       </c>
       <c r="B42">
         <f t="shared" si="2"/>
-        <v>23.805769230769226</v>
+        <v>18.865384615384613</v>
       </c>
     </row>
   </sheetData>

--- a/assignment2 IR.xlsx
+++ b/assignment2 IR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spring 2020\mechatronics2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B5DE32-7342-4039-A8A3-FFF0A189C82E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8772CC1A-B992-4AF4-8247-7E1DC56306E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1233,6 +1233,1072 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$47:$E$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$47:$F$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DEF4-4C69-8B53-95E2D674D4A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="756542223"/>
+        <c:axId val="266269007"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="756542223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="266269007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="266269007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="756542223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$56:$E$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$56:$F$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-20BD-4BA0-96D0-966EF7E8225D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="882498559"/>
+        <c:axId val="266281487"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="882498559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="266281487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="266281487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="882498559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$53:$B$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$53:$C$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C309-4DFC-B853-FADE17FDD897}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="264061103"/>
+        <c:axId val="266279823"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="264061103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="266279823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="266279823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="264061103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1353,6 +2419,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2901,19 +4087,1567 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>20002</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2977,16 +5711,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3006,6 +5740,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADA63DED-0FF5-4EA6-ABA4-35CE4AE0C4BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{418409A7-F071-4EF1-9BF6-653528B63CA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81BC338C-AB8F-43D9-BEE5-84C2606E22A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3311,10 +6153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:B42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3616,7 +6458,7 @@
         <v>90.083333333333314</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>0.8</v>
@@ -3626,7 +6468,7 @@
         <v>66.937499999999986</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3636,7 +6478,7 @@
         <v>53.05</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>1.2</v>
@@ -3646,7 +6488,7 @@
         <v>43.791666666666664</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>1.4</v>
@@ -3656,7 +6498,7 @@
         <v>37.178571428571431</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>1.5999999999999999</v>
@@ -3666,7 +6508,7 @@
         <v>32.21875</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>1.7999999999999998</v>
@@ -3676,7 +6518,7 @@
         <v>28.361111111111114</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>1.9999999999999998</v>
@@ -3686,7 +6528,7 @@
         <v>25.275000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>2.1999999999999997</v>
@@ -3696,7 +6538,7 @@
         <v>22.75</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <f>A40+0.2</f>
         <v>2.4</v>
@@ -3706,7 +6548,7 @@
         <v>20.645833333333332</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>2.6</v>
@@ -3714,6 +6556,120 @@
       <c r="B42">
         <f t="shared" si="2"/>
         <v>18.865384615384613</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <v>2.75</v>
+      </c>
+      <c r="F47">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <v>2.5</v>
+      </c>
+      <c r="F48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E50">
+        <v>1.5</v>
+      </c>
+      <c r="F50">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>0.8</v>
+      </c>
+      <c r="C53">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>0.75</v>
+      </c>
+      <c r="C54">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>0.7</v>
+      </c>
+      <c r="C55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>0.6</v>
+      </c>
+      <c r="C56">
+        <v>110</v>
+      </c>
+      <c r="E56">
+        <v>1.3</v>
+      </c>
+      <c r="F56">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C57">
+        <v>120</v>
+      </c>
+      <c r="E57">
+        <v>1.05</v>
+      </c>
+      <c r="F57">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>0.5</v>
+      </c>
+      <c r="C58">
+        <v>130</v>
+      </c>
+      <c r="E58">
+        <v>0.85</v>
+      </c>
+      <c r="F58">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>0.48</v>
+      </c>
+      <c r="C59">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>0.45</v>
+      </c>
+      <c r="C60">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
